--- a/testData/userData.xlsx
+++ b/testData/userData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva/Documents/sdet_fast_track_training/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB29014-5977-AC4E-81D0-815ADD6213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C97676-60F6-124F-9C11-256E064FC5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15580" xr2:uid="{239DA4CF-7B93-2F4D-B41F-6456DAFF6756}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
